--- a/DOC/WBS/QA.xlsx
+++ b/DOC/WBS/QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\ems\DOC\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9DE84-2355-41F7-BD7B-9816DBD81E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C4ACAE-5961-4D7F-83B8-EEFA1A0F6187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="915" windowWidth="25605" windowHeight="14880" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="25605" windowHeight="14880" xr2:uid="{1BD9D6AE-95E3-44FA-9F08-5ED003B19781}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="B1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
